--- a/InputData/fuels/BCTR/BAU Carbon Tax Rate.xlsx
+++ b/InputData/fuels/BCTR/BAU Carbon Tax Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CO\fuels\BCTR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A60B3D71-5D41-42ED-976C-0D2B4F8379F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78495D0B-5943-417F-ADE3-E92357866E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1110" windowWidth="12360" windowHeight="16890" firstSheet="1" activeTab="4" xr2:uid="{061459C3-F8E3-40F7-8A92-425A32688CAD}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="1" activeTab="4" xr2:uid="{061459C3-F8E3-40F7-8A92-425A32688CAD}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -5326,7 +5326,7 @@
         <v>76</v>
       </c>
       <c r="C1" s="18">
-        <v>45258</v>
+        <v>45294</v>
       </c>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
